--- a/Data Bayi diabwah 1 tahun.xlsx
+++ b/Data Bayi diabwah 1 tahun.xlsx
@@ -13617,7 +13617,7 @@
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13635,13 +13635,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -14103,28 +14096,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14133,118 +14129,115 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14580,11 +14573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AG191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="B95" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -14720,7 +14713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:29">
+    <row r="2" spans="1:29">
       <c r="A2" s="2">
         <v>772</v>
       </c>
@@ -14805,7 +14798,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:29">
+    <row r="3" spans="1:29">
       <c r="A3" s="2">
         <v>661</v>
       </c>
@@ -14890,7 +14883,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:29">
+    <row r="4" spans="1:29">
       <c r="A4" s="2">
         <v>771</v>
       </c>
@@ -14975,7 +14968,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:29">
+    <row r="5" spans="1:29">
       <c r="A5" s="2">
         <v>191</v>
       </c>
@@ -15062,7 +15055,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:29">
+    <row r="6" spans="1:29">
       <c r="A6" s="2">
         <v>194</v>
       </c>
@@ -15149,7 +15142,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:29">
+    <row r="7" spans="1:29">
       <c r="A7" s="2">
         <v>1513</v>
       </c>
@@ -15234,7 +15227,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:29">
+    <row r="8" spans="1:29">
       <c r="A8" s="2">
         <v>218</v>
       </c>
@@ -15321,7 +15314,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:29">
+    <row r="9" spans="1:29">
       <c r="A9" s="2">
         <v>657</v>
       </c>
@@ -15406,7 +15399,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:29">
+    <row r="10" spans="1:29">
       <c r="A10" s="2">
         <v>770</v>
       </c>
@@ -15491,7 +15484,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:29">
+    <row r="11" spans="1:29">
       <c r="A11" s="2">
         <v>99</v>
       </c>
@@ -15578,7 +15571,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:29">
+    <row r="12" spans="1:29">
       <c r="A12" s="2">
         <v>100</v>
       </c>
@@ -15665,7 +15658,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:29">
+    <row r="13" spans="1:29">
       <c r="A13" s="2">
         <v>504</v>
       </c>
@@ -15750,7 +15743,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:29">
+    <row r="14" spans="1:29">
       <c r="A14" s="2">
         <v>951</v>
       </c>
@@ -15835,7 +15828,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:29">
+    <row r="15" spans="1:29">
       <c r="A15" s="2">
         <v>102</v>
       </c>
@@ -15922,7 +15915,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:29">
+    <row r="16" spans="1:29">
       <c r="A16" s="2">
         <v>767</v>
       </c>
@@ -16007,7 +16000,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:29">
+    <row r="17" spans="1:29">
       <c r="A17" s="2">
         <v>201</v>
       </c>
@@ -16094,7 +16087,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:29">
+    <row r="18" spans="1:29">
       <c r="A18" s="2">
         <v>670</v>
       </c>
@@ -16179,7 +16172,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:29">
+    <row r="19" spans="1:29">
       <c r="A19" s="2">
         <v>103</v>
       </c>
@@ -16266,7 +16259,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:29">
+    <row r="20" spans="1:29">
       <c r="A20" s="2">
         <v>672</v>
       </c>
@@ -16351,7 +16344,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:29">
+    <row r="21" spans="1:29">
       <c r="A21" s="2">
         <v>773</v>
       </c>
@@ -16436,7 +16429,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:29">
+    <row r="22" spans="1:29">
       <c r="A22" s="2">
         <v>671</v>
       </c>
@@ -16523,7 +16516,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:29">
+    <row r="23" spans="1:29">
       <c r="A23" s="2">
         <v>101</v>
       </c>
@@ -16610,7 +16603,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:29">
+    <row r="24" spans="1:29">
       <c r="A24" s="2">
         <v>769</v>
       </c>
@@ -16695,7 +16688,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:29">
+    <row r="25" spans="1:29">
       <c r="A25" s="2">
         <v>502</v>
       </c>
@@ -16780,7 +16773,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:29">
+    <row r="26" spans="1:29">
       <c r="A26" s="2">
         <v>1501</v>
       </c>
@@ -16867,7 +16860,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:29">
+    <row r="27" spans="1:29">
       <c r="A27" s="2">
         <v>221</v>
       </c>
@@ -16954,7 +16947,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:29">
+    <row r="28" spans="1:29">
       <c r="A28" s="2">
         <v>768</v>
       </c>
@@ -17039,7 +17032,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:29">
+    <row r="29" spans="1:29">
       <c r="A29" s="2">
         <v>794</v>
       </c>
@@ -17126,7 +17119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:29">
+    <row r="30" spans="1:29">
       <c r="A30" s="2">
         <v>795</v>
       </c>
@@ -17213,7 +17206,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:29">
+    <row r="31" spans="1:29">
       <c r="A31" s="2">
         <v>503</v>
       </c>
@@ -17298,7 +17291,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:29">
+    <row r="32" spans="1:29">
       <c r="A32" s="2">
         <v>937</v>
       </c>
@@ -17383,7 +17376,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:29">
+    <row r="33" spans="1:29">
       <c r="A33" s="2">
         <v>500</v>
       </c>
@@ -17468,7 +17461,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:29">
+    <row r="34" spans="1:29">
       <c r="A34" s="2">
         <v>198</v>
       </c>
@@ -17555,7 +17548,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:29">
+    <row r="35" spans="1:29">
       <c r="A35" s="2">
         <v>1488</v>
       </c>
@@ -17642,7 +17635,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:29">
+    <row r="36" spans="1:29">
       <c r="A36" s="2">
         <v>1514</v>
       </c>
@@ -17727,7 +17720,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:29">
+    <row r="37" spans="1:29">
       <c r="A37" s="2">
         <v>485</v>
       </c>
@@ -17812,7 +17805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:29">
+    <row r="38" spans="1:29">
       <c r="A38" s="2">
         <v>725</v>
       </c>
@@ -17897,7 +17890,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:29">
+    <row r="39" spans="1:29">
       <c r="A39" s="2">
         <v>1509</v>
       </c>
@@ -17982,7 +17975,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:29">
+    <row r="40" spans="1:29">
       <c r="A40" s="2">
         <v>1525</v>
       </c>
@@ -18067,7 +18060,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:29">
+    <row r="41" spans="1:29">
       <c r="A41" s="2">
         <v>1560</v>
       </c>
@@ -18152,7 +18145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:29">
+    <row r="42" spans="1:29">
       <c r="A42" s="2">
         <v>805</v>
       </c>
@@ -18237,7 +18230,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:29">
+    <row r="43" spans="1:29">
       <c r="A43" s="2">
         <v>804</v>
       </c>
@@ -18324,7 +18317,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:29">
+    <row r="44" spans="1:29">
       <c r="A44" s="2">
         <v>434</v>
       </c>
@@ -18409,7 +18402,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:29">
+    <row r="45" spans="1:29">
       <c r="A45" s="2">
         <v>399</v>
       </c>
@@ -18498,7 +18491,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:29">
+    <row r="46" spans="1:29">
       <c r="A46" s="2">
         <v>1110</v>
       </c>
@@ -18585,7 +18578,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:29">
+    <row r="47" spans="1:29">
       <c r="A47" s="2">
         <v>1114</v>
       </c>
@@ -18672,7 +18665,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:29">
+    <row r="48" spans="1:29">
       <c r="A48" s="2">
         <v>1086</v>
       </c>
@@ -18757,7 +18750,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:29">
+    <row r="49" spans="1:29">
       <c r="A49" s="2">
         <v>461</v>
       </c>
@@ -18844,7 +18837,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:29">
+    <row r="50" spans="1:29">
       <c r="A50" s="2">
         <v>446</v>
       </c>
@@ -18931,7 +18924,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:29">
+    <row r="51" spans="1:29">
       <c r="A51" s="2">
         <v>1133</v>
       </c>
@@ -19018,7 +19011,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:29">
+    <row r="52" spans="1:29">
       <c r="A52" s="2">
         <v>1136</v>
       </c>
@@ -19105,7 +19098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:29">
+    <row r="53" spans="1:29">
       <c r="A53" s="2">
         <v>1139</v>
       </c>
@@ -19192,7 +19185,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:29">
+    <row r="54" spans="1:29">
       <c r="A54" s="2">
         <v>478</v>
       </c>
@@ -19279,7 +19272,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:29">
+    <row r="55" spans="1:29">
       <c r="A55" s="2">
         <v>476</v>
       </c>
@@ -19364,7 +19357,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:29">
+    <row r="56" spans="1:29">
       <c r="A56" s="2">
         <v>1137</v>
       </c>
@@ -19451,7 +19444,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:29">
+    <row r="57" spans="1:29">
       <c r="A57" s="2">
         <v>398</v>
       </c>
@@ -19540,7 +19533,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:29">
+    <row r="58" spans="1:29">
       <c r="A58" s="2">
         <v>1265</v>
       </c>
@@ -19627,7 +19620,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:29">
+    <row r="59" spans="1:29">
       <c r="A59" s="2">
         <v>1117</v>
       </c>
@@ -19714,7 +19707,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:29">
+    <row r="60" spans="1:29">
       <c r="A60" s="2">
         <v>1279</v>
       </c>
@@ -19803,7 +19796,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:29">
+    <row r="61" spans="1:29">
       <c r="A61" s="2">
         <v>1096</v>
       </c>
@@ -19888,7 +19881,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:29">
+    <row r="62" spans="1:29">
       <c r="A62" s="2">
         <v>472</v>
       </c>
@@ -20421,7 +20414,7 @@
         <v>690</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>576</v>
+        <v>100</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>38</v>
@@ -24518,7 +24511,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:29">
+    <row r="116" spans="1:29">
       <c r="A116" s="2">
         <v>36</v>
       </c>
@@ -24605,7 +24598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:29">
+    <row r="117" spans="1:29">
       <c r="A117" s="2">
         <v>1019</v>
       </c>
@@ -24688,7 +24681,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:29">
+    <row r="118" spans="1:29">
       <c r="A118" s="2">
         <v>911</v>
       </c>
@@ -24775,7 +24768,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:29">
+    <row r="119" spans="1:29">
       <c r="A119" s="2">
         <v>910</v>
       </c>
@@ -24862,7 +24855,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:29">
+    <row r="120" spans="1:29">
       <c r="A120" s="2">
         <v>45</v>
       </c>
@@ -24949,7 +24942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:29">
+    <row r="121" spans="1:29">
       <c r="A121" s="2">
         <v>386</v>
       </c>
@@ -25034,7 +25027,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:29">
+    <row r="122" spans="1:29">
       <c r="A122" s="2">
         <v>1017</v>
       </c>
@@ -25119,7 +25112,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:29">
+    <row r="123" spans="1:29">
       <c r="A123" s="2">
         <v>907</v>
       </c>
@@ -25206,7 +25199,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:29">
+    <row r="124" spans="1:29">
       <c r="A124" s="2">
         <v>297</v>
       </c>
@@ -25291,7 +25284,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:29">
+    <row r="125" spans="1:29">
       <c r="A125" s="2">
         <v>896</v>
       </c>
@@ -25378,7 +25371,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:29">
+    <row r="126" spans="1:29">
       <c r="A126" s="2">
         <v>650</v>
       </c>
@@ -25463,7 +25456,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:29">
+    <row r="127" spans="1:29">
       <c r="A127" s="2">
         <v>170</v>
       </c>
@@ -25548,7 +25541,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:29">
+    <row r="128" spans="1:29">
       <c r="A128" s="2">
         <v>913</v>
       </c>
@@ -25637,7 +25630,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:29">
+    <row r="129" spans="1:29">
       <c r="A129" s="2">
         <v>840</v>
       </c>
@@ -25722,7 +25715,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:29">
+    <row r="130" spans="1:29">
       <c r="A130" s="2">
         <v>1169</v>
       </c>
@@ -25807,7 +25800,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:29">
+    <row r="131" spans="1:29">
       <c r="A131" s="2">
         <v>375</v>
       </c>
@@ -25894,7 +25887,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:29">
+    <row r="132" spans="1:29">
       <c r="A132" s="2">
         <v>377</v>
       </c>
@@ -25981,7 +25974,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:29">
+    <row r="133" spans="1:29">
       <c r="A133" s="2">
         <v>378</v>
       </c>
@@ -26068,7 +26061,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:29">
+    <row r="134" spans="1:29">
       <c r="A134" s="2">
         <v>1171</v>
       </c>
@@ -26153,7 +26146,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:29">
+    <row r="135" spans="1:29">
       <c r="A135" s="2">
         <v>1357</v>
       </c>
@@ -26240,7 +26233,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:29">
+    <row r="136" spans="1:29">
       <c r="A136" s="2">
         <v>836</v>
       </c>
@@ -26325,7 +26318,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:29">
+    <row r="137" spans="1:29">
       <c r="A137" s="2">
         <v>1170</v>
       </c>
@@ -26410,7 +26403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:29">
+    <row r="138" spans="1:29">
       <c r="A138" s="2">
         <v>844</v>
       </c>
@@ -26495,7 +26488,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:29">
+    <row r="139" spans="1:29">
       <c r="A139" s="2">
         <v>43</v>
       </c>
@@ -26582,7 +26575,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:29">
+    <row r="140" spans="1:29">
       <c r="A140" s="2">
         <v>295</v>
       </c>
@@ -26667,7 +26660,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:29">
+    <row r="141" spans="1:29">
       <c r="A141" s="2">
         <v>845</v>
       </c>
@@ -26752,7 +26745,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:29">
+    <row r="142" spans="1:29">
       <c r="A142" s="2">
         <v>906</v>
       </c>
@@ -26837,7 +26830,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:29">
+    <row r="143" spans="1:29">
       <c r="A143" s="2">
         <v>1223</v>
       </c>
@@ -26922,7 +26915,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:29">
+    <row r="144" spans="1:29">
       <c r="A144" s="2">
         <v>383</v>
       </c>
@@ -27007,7 +27000,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:29">
+    <row r="145" spans="1:29">
       <c r="A145" s="2">
         <v>384</v>
       </c>
@@ -27092,7 +27085,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:29">
+    <row r="146" spans="1:29">
       <c r="A146" s="2">
         <v>388</v>
       </c>
@@ -27177,7 +27170,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:29">
+    <row r="147" spans="1:29">
       <c r="A147" s="2">
         <v>847</v>
       </c>
@@ -27262,7 +27255,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:29">
+    <row r="148" spans="1:29">
       <c r="A148" s="2">
         <v>44</v>
       </c>
@@ -27349,7 +27342,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:29">
+    <row r="149" spans="1:29">
       <c r="A149" s="2">
         <v>385</v>
       </c>
@@ -27434,7 +27427,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:29">
+    <row r="150" spans="1:29">
       <c r="A150" s="2">
         <v>909</v>
       </c>
@@ -27521,7 +27514,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:29">
+    <row r="151" spans="1:29">
       <c r="A151" s="2">
         <v>382</v>
       </c>
@@ -27606,7 +27599,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:29">
+    <row r="152" spans="1:29">
       <c r="A152" s="2">
         <v>1015</v>
       </c>
@@ -27691,7 +27684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:29">
+    <row r="153" spans="1:29">
       <c r="A153" s="2">
         <v>296</v>
       </c>
@@ -27776,7 +27769,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:29">
+    <row r="154" spans="1:29">
       <c r="A154" s="2">
         <v>389</v>
       </c>
@@ -27861,7 +27854,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:29">
+    <row r="155" spans="1:29">
       <c r="A155" s="2">
         <v>327</v>
       </c>
@@ -27946,7 +27939,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:29">
+    <row r="156" spans="1:29">
       <c r="A156" s="2">
         <v>905</v>
       </c>
@@ -28033,7 +28026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:29">
+    <row r="157" spans="1:29">
       <c r="A157" s="2">
         <v>381</v>
       </c>
@@ -28118,7 +28111,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:29">
+    <row r="158" spans="1:29">
       <c r="A158" s="2">
         <v>387</v>
       </c>
@@ -28203,7 +28196,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:29">
+    <row r="159" spans="1:29">
       <c r="A159" s="2">
         <v>390</v>
       </c>
@@ -28288,7 +28281,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:29">
+    <row r="160" spans="1:29">
       <c r="A160" s="2">
         <v>46</v>
       </c>
@@ -28375,7 +28368,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:29">
+    <row r="161" spans="1:29">
       <c r="A161" s="2">
         <v>912</v>
       </c>
@@ -28462,7 +28455,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:29">
+    <row r="162" spans="1:29">
       <c r="A162" s="2">
         <v>848</v>
       </c>
@@ -28547,7 +28540,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:29">
+    <row r="163" spans="1:29">
       <c r="A163" s="2">
         <v>326</v>
       </c>
@@ -28632,7 +28625,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:29">
+    <row r="164" spans="1:29">
       <c r="A164" s="2">
         <v>846</v>
       </c>
@@ -28717,7 +28710,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:29">
+    <row r="165" spans="1:29">
       <c r="A165" s="2">
         <v>1303</v>
       </c>
@@ -28804,7 +28797,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:29">
+    <row r="166" spans="1:29">
       <c r="A166" s="2">
         <v>380</v>
       </c>
@@ -28891,7 +28884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:29">
+    <row r="167" spans="1:29">
       <c r="A167" s="2">
         <v>216</v>
       </c>
@@ -28976,7 +28969,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:29">
+    <row r="168" spans="1:29">
       <c r="A168" s="2">
         <v>374</v>
       </c>
@@ -29063,7 +29056,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:29">
+    <row r="169" spans="1:29">
       <c r="A169" s="2">
         <v>1172</v>
       </c>
@@ -29150,7 +29143,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:29">
+    <row r="170" spans="1:29">
       <c r="A170" s="2">
         <v>914</v>
       </c>
@@ -29237,7 +29230,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:29">
+    <row r="171" spans="1:29">
       <c r="A171" s="2">
         <v>1012</v>
       </c>
@@ -29322,7 +29315,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:29">
+    <row r="172" spans="1:29">
       <c r="A172" s="2">
         <v>814</v>
       </c>
@@ -29407,7 +29400,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:29">
+    <row r="173" spans="1:29">
       <c r="A173" s="2">
         <v>373</v>
       </c>
@@ -29494,7 +29487,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:29">
+    <row r="174" spans="1:29">
       <c r="A174" s="2">
         <v>886</v>
       </c>
@@ -29581,7 +29574,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:29">
+    <row r="175" spans="1:29">
       <c r="A175" s="2">
         <v>376</v>
       </c>
@@ -29668,7 +29661,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:29">
+    <row r="176" spans="1:29">
       <c r="A176" s="2">
         <v>3</v>
       </c>
@@ -29753,7 +29746,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:29">
+    <row r="177" spans="1:29">
       <c r="A177" s="2">
         <v>1168</v>
       </c>
@@ -29838,7 +29831,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:29">
+    <row r="178" spans="1:29">
       <c r="A178" s="2">
         <v>580</v>
       </c>
@@ -29923,7 +29916,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:29">
+    <row r="179" spans="1:29">
       <c r="A179" s="2">
         <v>205</v>
       </c>
@@ -30008,7 +30001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:29">
+    <row r="180" spans="1:29">
       <c r="A180" s="2">
         <v>1173</v>
       </c>
@@ -30095,7 +30088,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:29">
+    <row r="181" spans="1:29">
       <c r="A181" s="2">
         <v>1415</v>
       </c>
@@ -30182,7 +30175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:29">
+    <row r="182" spans="1:29">
       <c r="A182" s="2">
         <v>895</v>
       </c>
@@ -30269,7 +30262,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:29">
+    <row r="183" spans="1:29">
       <c r="A183" s="2">
         <v>1595</v>
       </c>
@@ -30358,7 +30351,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:29">
+    <row r="184" spans="1:29">
       <c r="A184" s="2">
         <v>1013</v>
       </c>
@@ -30445,7 +30438,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:29">
+    <row r="185" spans="1:29">
       <c r="A185" s="2">
         <v>581</v>
       </c>
@@ -30530,7 +30523,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:29">
+    <row r="186" spans="1:29">
       <c r="A186" s="2">
         <v>379</v>
       </c>
@@ -30617,7 +30610,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:29">
+    <row r="187" spans="1:29">
       <c r="A187" s="2">
         <v>574</v>
       </c>
@@ -30702,7 +30695,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:29">
+    <row r="188" spans="1:29">
       <c r="A188" s="2">
         <v>837</v>
       </c>
@@ -30789,7 +30782,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:29">
+    <row r="189" spans="1:29">
       <c r="A189" s="2">
         <v>1215</v>
       </c>
@@ -30874,7 +30867,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:29">
+    <row r="190" spans="1:29">
       <c r="A190" s="2">
         <v>1638</v>
       </c>
@@ -30959,7 +30952,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:29">
+    <row r="191" spans="1:29">
       <c r="A191" s="2">
         <v>202</v>
       </c>
@@ -31046,12 +31039,7 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AG191" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="TULAMALAE "/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:AG191">
+    <sortState ref="A1:AG191">
       <sortCondition ref="M1"/>
     </sortState>
     <extLst/>
